--- a/pred_ohlcv/54_21/2019-10-06 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>200434.4888691851</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>205276.7769691851</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>224556.6804691851</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>239166.7279691851</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>240934.8403691851</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>247065.7307691851</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>251522.4595691851</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>251179.8956691851</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>249311.0425691851</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>254465.4506691851</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>254460.046669185</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>254466.427169185</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>253092.874269185</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>227189.300769185</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>226389.300769185</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>226390.300769185</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>226354.066769185</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>224518.499869185</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>225585.393169185</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>225616.019469185</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>225616.019469185</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>220615.888869185</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>220673.417869185</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>191229.752169185</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>191280.081169185</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>189316.214869185</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>188672.516069185</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>188659.944169185</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>188796.088269185</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>206008.904669185</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>202497.825569185</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>205894.825569185</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>207257.186169185</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>205127.905869185</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>205507.905869185</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>204704.880369185</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>204682.667569185</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-06 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>99499.39730820124</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>99501.39230820123</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>103350.9480082012</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>200434.4888691851</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>205276.7769691851</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>224556.6804691851</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>224549.2821691851</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>224529.4398691851</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>239166.7279691851</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>240934.8403691851</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>246391.7175691851</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>247065.7307691851</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>251522.4595691851</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>251179.8956691851</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>249311.0425691851</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>254465.4506691851</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>254460.046669185</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>254466.427169185</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>253048.427169185</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>253092.874269185</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>247938.466169185</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>228743.923769185</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>228692.578169185</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>228634.952769185</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>226390.300769185</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>228847.238169185</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>227745.238169185</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>227720.958369185</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>227072.774269185</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>224518.499869185</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>227019.246769185</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>225616.019469185</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>191229.752169185</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>191280.081169185</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>189316.214869185</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>185853.146569185</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>188672.516069185</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>188659.944169185</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>188796.088269185</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>206008.904669185</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>202497.825569185</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>205894.825569185</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>207257.186169185</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>205127.905869185</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>205507.905869185</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>204704.880369185</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>204682.667569185</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
